--- a/Table 2 - Diagnostic Pigments/TableX-ChloropigmentTable.xlsx
+++ b/Table 2 - Diagnostic Pigments/TableX-ChloropigmentTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="24640" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t xml:space="preserve">Diagnostic Pigments </t>
   </si>
@@ -51,9 +51,6 @@
     <t>Fuco</t>
   </si>
   <si>
-    <t>diatoms</t>
-  </si>
-  <si>
     <t>Perid</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>Allox</t>
   </si>
   <si>
-    <t>cyanobacteria and prochlorophytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytoplankton Size Class </t>
-  </si>
-  <si>
     <t>microplankton</t>
   </si>
   <si>
@@ -87,15 +78,9 @@
     <t>picoplankton</t>
   </si>
   <si>
-    <t>Table X. Phytoplankton Size Classes (PSCs) and Phytoplankton Functional Types (PFTs) represented by their pigments.</t>
-  </si>
-  <si>
     <t>Cyanobacteria and prochlorophytes</t>
   </si>
   <si>
-    <t>PFT/PSC</t>
-  </si>
-  <si>
     <t>Diatoms</t>
   </si>
   <si>
@@ -112,6 +97,36 @@
   </si>
   <si>
     <t>Estimation formula</t>
+  </si>
+  <si>
+    <t>1.41[Fuco]</t>
+  </si>
+  <si>
+    <t>1.41[Perid]</t>
+  </si>
+  <si>
+    <t>1.27[Hex-fuco]</t>
+  </si>
+  <si>
+    <t>0.35[But-fuco]</t>
+  </si>
+  <si>
+    <t>1.01[TChlb]</t>
+  </si>
+  <si>
+    <t>0.60[Allox]</t>
+  </si>
+  <si>
+    <t>0.86[Zeax]</t>
+  </si>
+  <si>
+    <t>Table 2. Phytoplankton Functional Types (PFTs) and Phytoplankton Size Classes (PSCs) represented by their pigments.</t>
+  </si>
+  <si>
+    <t>PFT</t>
+  </si>
+  <si>
+    <t>PSC</t>
   </si>
 </sst>
 </file>
@@ -180,8 +195,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -236,7 +257,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -261,6 +282,9 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -285,6 +309,9 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,23 +641,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -639,7 +664,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -648,15 +673,15 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -665,98 +690,148 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Table 2 - Diagnostic Pigments/TableX-ChloropigmentTable.xlsx
+++ b/Table 2 - Diagnostic Pigments/TableX-ChloropigmentTable.xlsx
@@ -177,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -194,8 +194,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -251,13 +328,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -285,6 +376,9 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -312,6 +406,9 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,7 +740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -663,138 +762,138 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
